--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hc-C5ar2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hc-C5ar2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1527673333333333</v>
+        <v>0.015297</v>
       </c>
       <c r="H2">
-        <v>0.458302</v>
+        <v>0.045891</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.0153746470927005</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.0153746470927005</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.002486</v>
+        <v>0.007121666666666668</v>
       </c>
       <c r="N2">
-        <v>0.007458</v>
+        <v>0.021365</v>
       </c>
       <c r="O2">
-        <v>3.00751452789208E-05</v>
+        <v>6.626332888101038E-05</v>
       </c>
       <c r="P2">
-        <v>3.00751452789208E-05</v>
+        <v>6.626332888101038E-05</v>
       </c>
       <c r="Q2">
-        <v>0.0003797795906666667</v>
+        <v>0.000108940135</v>
       </c>
       <c r="R2">
-        <v>0.003418016316</v>
+        <v>0.0009804612150000002</v>
       </c>
       <c r="S2">
-        <v>3.00751452789208E-05</v>
+        <v>1.018775296733084E-06</v>
       </c>
       <c r="T2">
-        <v>3.00751452789208E-05</v>
+        <v>1.018775296733084E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1527673333333333</v>
+        <v>0.015297</v>
       </c>
       <c r="H3">
-        <v>0.458302</v>
+        <v>0.045891</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.0153746470927005</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.0153746470927005</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +629,22 @@
         <v>0.03513</v>
       </c>
       <c r="O3">
-        <v>0.0001416653062011917</v>
+        <v>0.0001089553355295996</v>
       </c>
       <c r="P3">
-        <v>0.0001416653062011917</v>
+        <v>0.0001089553355295996</v>
       </c>
       <c r="Q3">
-        <v>0.001788905473333333</v>
+        <v>0.00017912787</v>
       </c>
       <c r="R3">
-        <v>0.01610014926</v>
+        <v>0.00161215083</v>
       </c>
       <c r="S3">
-        <v>0.0001416653062011917</v>
+        <v>1.675149832634366E-06</v>
       </c>
       <c r="T3">
-        <v>0.0001416653062011917</v>
+        <v>1.675149832634366E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1527673333333333</v>
+        <v>0.015297</v>
       </c>
       <c r="H4">
-        <v>0.458302</v>
+        <v>0.045891</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.0153746470927005</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.0153746470927005</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.107756666666667</v>
+        <v>15.223647</v>
       </c>
       <c r="N4">
-        <v>27.32327</v>
+        <v>45.67094100000001</v>
       </c>
       <c r="O4">
-        <v>0.1101838716472484</v>
+        <v>0.141647956180118</v>
       </c>
       <c r="P4">
-        <v>0.1101838716472484</v>
+        <v>0.141647956180118</v>
       </c>
       <c r="Q4">
-        <v>1.391367698615556</v>
+        <v>0.232876128159</v>
       </c>
       <c r="R4">
-        <v>12.52230928754</v>
+        <v>2.095885153431</v>
       </c>
       <c r="S4">
-        <v>0.1101838716472484</v>
+        <v>0.002177787337671619</v>
       </c>
       <c r="T4">
-        <v>0.1101838716472484</v>
+        <v>0.002177787337671619</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1527673333333333</v>
+        <v>0.015297</v>
       </c>
       <c r="H5">
-        <v>0.458302</v>
+        <v>0.045891</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.0153746470927005</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.0153746470927005</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>65.26224133333334</v>
+        <v>0.01159</v>
       </c>
       <c r="N5">
-        <v>195.786724</v>
+        <v>0.03477</v>
       </c>
       <c r="O5">
-        <v>0.7895299233016854</v>
+        <v>0.000107838799213327</v>
       </c>
       <c r="P5">
-        <v>0.7895299233016855</v>
+        <v>0.000107838799213327</v>
       </c>
       <c r="Q5">
-        <v>9.969938575849778</v>
+        <v>0.00017729223</v>
       </c>
       <c r="R5">
-        <v>89.72944718264799</v>
+        <v>0.00159563007</v>
       </c>
       <c r="S5">
-        <v>0.7895299233016854</v>
+        <v>1.657983480805491E-06</v>
       </c>
       <c r="T5">
-        <v>0.7895299233016855</v>
+        <v>1.657983480805491E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1527673333333333</v>
+        <v>0.015297</v>
       </c>
       <c r="H6">
-        <v>0.458302</v>
+        <v>0.045891</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.0153746470927005</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.0153746470927005</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +809,462 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.275423333333334</v>
+        <v>84.97145566666667</v>
       </c>
       <c r="N6">
-        <v>24.82627</v>
+        <v>254.914367</v>
       </c>
       <c r="O6">
-        <v>0.1001144645995861</v>
+        <v>0.7906143008198258</v>
       </c>
       <c r="P6">
-        <v>0.1001144645995861</v>
+        <v>0.7906143008198258</v>
       </c>
       <c r="Q6">
-        <v>1.264214354837778</v>
+        <v>1.299808357333</v>
       </c>
       <c r="R6">
-        <v>11.37792919354</v>
+        <v>11.698275215997</v>
       </c>
       <c r="S6">
-        <v>0.1001144645995861</v>
+        <v>0.01215541586154698</v>
       </c>
       <c r="T6">
-        <v>0.1001144645995861</v>
+        <v>0.01215541586154698</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.015297</v>
+      </c>
+      <c r="H7">
+        <v>0.045891</v>
+      </c>
+      <c r="I7">
+        <v>0.0153746470927005</v>
+      </c>
+      <c r="J7">
+        <v>0.0153746470927005</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>7.249708000000001</v>
+      </c>
+      <c r="N7">
+        <v>21.749124</v>
+      </c>
+      <c r="O7">
+        <v>0.0674546855364323</v>
+      </c>
+      <c r="P7">
+        <v>0.06745468553643229</v>
+      </c>
+      <c r="Q7">
+        <v>0.110898783276</v>
+      </c>
+      <c r="R7">
+        <v>0.9980890494840001</v>
+      </c>
+      <c r="S7">
+        <v>0.001037091984871736</v>
+      </c>
+      <c r="T7">
+        <v>0.001037091984871735</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.9796526666666665</v>
+      </c>
+      <c r="H8">
+        <v>2.938958</v>
+      </c>
+      <c r="I8">
+        <v>0.9846253529072995</v>
+      </c>
+      <c r="J8">
+        <v>0.9846253529072995</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.007121666666666668</v>
+      </c>
+      <c r="N8">
+        <v>0.021365</v>
+      </c>
+      <c r="O8">
+        <v>6.626332888101038E-05</v>
+      </c>
+      <c r="P8">
+        <v>6.626332888101038E-05</v>
+      </c>
+      <c r="Q8">
+        <v>0.006976759741111111</v>
+      </c>
+      <c r="R8">
+        <v>0.06279083767</v>
+      </c>
+      <c r="S8">
+        <v>6.52445535842773E-05</v>
+      </c>
+      <c r="T8">
+        <v>6.52445535842773E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.9796526666666665</v>
+      </c>
+      <c r="H9">
+        <v>2.938958</v>
+      </c>
+      <c r="I9">
+        <v>0.9846253529072995</v>
+      </c>
+      <c r="J9">
+        <v>0.9846253529072995</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.01171</v>
+      </c>
+      <c r="N9">
+        <v>0.03513</v>
+      </c>
+      <c r="O9">
+        <v>0.0001089553355295996</v>
+      </c>
+      <c r="P9">
+        <v>0.0001089553355295996</v>
+      </c>
+      <c r="Q9">
+        <v>0.01147173272666666</v>
+      </c>
+      <c r="R9">
+        <v>0.10324559454</v>
+      </c>
+      <c r="S9">
+        <v>0.0001072801856969652</v>
+      </c>
+      <c r="T9">
+        <v>0.0001072801856969652</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.9796526666666665</v>
+      </c>
+      <c r="H10">
+        <v>2.938958</v>
+      </c>
+      <c r="I10">
+        <v>0.9846253529072995</v>
+      </c>
+      <c r="J10">
+        <v>0.9846253529072995</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>15.223647</v>
+      </c>
+      <c r="N10">
+        <v>45.67094100000001</v>
+      </c>
+      <c r="O10">
+        <v>0.141647956180118</v>
+      </c>
+      <c r="P10">
+        <v>0.141647956180118</v>
+      </c>
+      <c r="Q10">
+        <v>14.913886379942</v>
+      </c>
+      <c r="R10">
+        <v>134.224977419478</v>
+      </c>
+      <c r="S10">
+        <v>0.1394701688424464</v>
+      </c>
+      <c r="T10">
+        <v>0.1394701688424464</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.9796526666666665</v>
+      </c>
+      <c r="H11">
+        <v>2.938958</v>
+      </c>
+      <c r="I11">
+        <v>0.9846253529072995</v>
+      </c>
+      <c r="J11">
+        <v>0.9846253529072995</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.01159</v>
+      </c>
+      <c r="N11">
+        <v>0.03477</v>
+      </c>
+      <c r="O11">
+        <v>0.000107838799213327</v>
+      </c>
+      <c r="P11">
+        <v>0.000107838799213327</v>
+      </c>
+      <c r="Q11">
+        <v>0.01135417440666667</v>
+      </c>
+      <c r="R11">
+        <v>0.10218756966</v>
+      </c>
+      <c r="S11">
+        <v>0.0001061808157325215</v>
+      </c>
+      <c r="T11">
+        <v>0.0001061808157325215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.9796526666666665</v>
+      </c>
+      <c r="H12">
+        <v>2.938958</v>
+      </c>
+      <c r="I12">
+        <v>0.9846253529072995</v>
+      </c>
+      <c r="J12">
+        <v>0.9846253529072995</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>84.97145566666667</v>
+      </c>
+      <c r="N12">
+        <v>254.914367</v>
+      </c>
+      <c r="O12">
+        <v>0.7906143008198258</v>
+      </c>
+      <c r="P12">
+        <v>0.7906143008198258</v>
+      </c>
+      <c r="Q12">
+        <v>83.24251313439844</v>
+      </c>
+      <c r="R12">
+        <v>749.1826182095858</v>
+      </c>
+      <c r="S12">
+        <v>0.7784588849582788</v>
+      </c>
+      <c r="T12">
+        <v>0.7784588849582788</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.9796526666666665</v>
+      </c>
+      <c r="H13">
+        <v>2.938958</v>
+      </c>
+      <c r="I13">
+        <v>0.9846253529072995</v>
+      </c>
+      <c r="J13">
+        <v>0.9846253529072995</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>7.249708000000001</v>
+      </c>
+      <c r="N13">
+        <v>21.749124</v>
+      </c>
+      <c r="O13">
+        <v>0.0674546855364323</v>
+      </c>
+      <c r="P13">
+        <v>0.06745468553643229</v>
+      </c>
+      <c r="Q13">
+        <v>7.102195774754667</v>
+      </c>
+      <c r="R13">
+        <v>63.919761972792</v>
+      </c>
+      <c r="S13">
+        <v>0.06641759355156056</v>
+      </c>
+      <c r="T13">
+        <v>0.06641759355156054</v>
       </c>
     </row>
   </sheetData>
